--- a/Analysis/Parcelization_Analysis_Metric8.xlsx
+++ b/Analysis/Parcelization_Analysis_Metric8.xlsx
@@ -1,22 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MRVPDAir/Desktop/scripts/parcelization_db/Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681C1CE-E98B-574C-AAB3-95FAF85879D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="26780" yWindow="680" windowWidth="38400" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fayston_metric8" sheetId="1" r:id="rId1"/>
-    <sheet name="Waitsfield_metric8" sheetId="2" r:id="rId2"/>
-    <sheet name="Warren_metric8" sheetId="3" r:id="rId3"/>
+    <sheet name="MRV" sheetId="4" r:id="rId1"/>
+    <sheet name="Fayston_metric2" sheetId="1" r:id="rId2"/>
+    <sheet name="Waitsfield_metric2" sheetId="2" r:id="rId3"/>
+    <sheet name="Warren_metric2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">MRV!$C$20:$F$20</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>TaxYear</t>
   </si>
@@ -41,12 +63,33 @@
   <si>
     <t>Metric8_BadCat</t>
   </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Blanks</t>
+  </si>
+  <si>
+    <t>Bad Category</t>
+  </si>
+  <si>
+    <t>change 2004 - 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,24 +141,920 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Acreage Change by Parcel Type, 2004 - 2020</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MRV!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Residential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Farm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woodland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MRV!$C$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13087485447108482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7455742735971813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.25200353830426231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.13942963095480526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D31-474C-9580-565503AAF6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1808719184"/>
+        <c:axId val="1808720912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1808719184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808720912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1808720912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808719184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C28DF1-D1CF-4F13-0C31-AC7D6EA21ADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +1092,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,6 +1126,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -221,9 +1161,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,495 +1337,677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D9D4D4-0CEC-B640-B021-E3FB3254489A}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>Fayston_metric2!A1</f>
+        <v>TaxYear</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Fayston_metric2!B1</f>
+        <v>Town</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
+        <f>Fayston_metric2!A2</f>
         <v>2004</v>
       </c>
       <c r="B2">
+        <f>Fayston_metric2!B2</f>
         <v>23040</v>
       </c>
       <c r="C2">
-        <v>9681.670000000009</v>
+        <f>SUM(Fayston_metric2!C2,Waitsfield_metric2!C2,Warren_metric2!C2)</f>
+        <v>25699.360000000011</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D2,Waitsfield_metric2!D2,Warren_metric2!D2)</f>
+        <v>2124.5099999999998</v>
       </c>
       <c r="E2">
-        <v>6039.57</v>
+        <f>SUM(Fayston_metric2!E2,Waitsfield_metric2!E2,Warren_metric2!E2)</f>
+        <v>9439.5499999999993</v>
       </c>
       <c r="F2">
-        <v>3598.49</v>
+        <f>SUM(Fayston_metric2!F2,Waitsfield_metric2!F2,Warren_metric2!F2)</f>
+        <v>14421.53999999999</v>
       </c>
       <c r="G2">
+        <f>SUM(Fayston_metric2!G2,Waitsfield_metric2!G2,Warren_metric2!G2)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <f>SUM(Fayston_metric2!H2,Waitsfield_metric2!H2,Warren_metric2!H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>Fayston_metric2!A3</f>
         <v>2005</v>
       </c>
       <c r="B3">
+        <f>Fayston_metric2!B3</f>
         <v>23040</v>
       </c>
       <c r="C3">
-        <v>10033.47</v>
+        <f>SUM(Fayston_metric2!C3,Waitsfield_metric2!C3,Warren_metric2!C3)</f>
+        <v>26670.089999999997</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D3,Waitsfield_metric2!D3,Warren_metric2!D3)</f>
+        <v>2169.16</v>
       </c>
       <c r="E3">
-        <v>6059.78</v>
+        <f>SUM(Fayston_metric2!E3,Waitsfield_metric2!E3,Warren_metric2!E3)</f>
+        <v>9297.56</v>
       </c>
       <c r="F3">
-        <v>3377.43</v>
+        <f>SUM(Fayston_metric2!F3,Waitsfield_metric2!F3,Warren_metric2!F3)</f>
+        <v>13528.62999999999</v>
       </c>
       <c r="G3">
+        <f>SUM(Fayston_metric2!G3,Waitsfield_metric2!G3,Warren_metric2!G3)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <f>SUM(Fayston_metric2!H3,Waitsfield_metric2!H3,Warren_metric2!H3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f>Fayston_metric2!A4</f>
         <v>2006</v>
       </c>
       <c r="B4">
+        <f>Fayston_metric2!B4</f>
         <v>23040</v>
       </c>
       <c r="C4">
-        <v>10119.69</v>
+        <f>SUM(Fayston_metric2!C4,Waitsfield_metric2!C4,Warren_metric2!C4)</f>
+        <v>26966.7</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D4,Waitsfield_metric2!D4,Warren_metric2!D4)</f>
+        <v>2131.2599999999998</v>
       </c>
       <c r="E4">
-        <v>5954.78</v>
+        <f>SUM(Fayston_metric2!E4,Waitsfield_metric2!E4,Warren_metric2!E4)</f>
+        <v>9101.81</v>
       </c>
       <c r="F4">
-        <v>3392.24</v>
+        <f>SUM(Fayston_metric2!F4,Waitsfield_metric2!F4,Warren_metric2!F4)</f>
+        <v>13490.05000000005</v>
       </c>
       <c r="G4">
+        <f>SUM(Fayston_metric2!G4,Waitsfield_metric2!G4,Warren_metric2!G4)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <f>SUM(Fayston_metric2!H4,Waitsfield_metric2!H4,Warren_metric2!H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f>Fayston_metric2!A5</f>
         <v>2007</v>
       </c>
       <c r="B5">
+        <f>Fayston_metric2!B5</f>
         <v>23040</v>
       </c>
       <c r="C5">
-        <v>10301.93</v>
+        <f>SUM(Fayston_metric2!C5,Waitsfield_metric2!C5,Warren_metric2!C5)</f>
+        <v>27409.540000000008</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D5,Waitsfield_metric2!D5,Warren_metric2!D5)</f>
+        <v>2131.06</v>
       </c>
       <c r="E5">
-        <v>5883.63</v>
+        <f>SUM(Fayston_metric2!E5,Waitsfield_metric2!E5,Warren_metric2!E5)</f>
+        <v>8794.66</v>
       </c>
       <c r="F5">
-        <v>3249.44</v>
+        <f>SUM(Fayston_metric2!F5,Waitsfield_metric2!F5,Warren_metric2!F5)</f>
+        <v>13066.910000000051</v>
       </c>
       <c r="G5">
+        <f>SUM(Fayston_metric2!G5,Waitsfield_metric2!G5,Warren_metric2!G5)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <f>SUM(Fayston_metric2!H5,Waitsfield_metric2!H5,Warren_metric2!H5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
+        <f>Fayston_metric2!A6</f>
         <v>2008</v>
       </c>
       <c r="B6">
+        <f>Fayston_metric2!B6</f>
         <v>23040</v>
       </c>
       <c r="C6">
-        <v>10333.62</v>
+        <f>SUM(Fayston_metric2!C6,Waitsfield_metric2!C6,Warren_metric2!C6)</f>
+        <v>27553.860000000011</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D6,Waitsfield_metric2!D6,Warren_metric2!D6)</f>
+        <v>2131.06</v>
       </c>
       <c r="E6">
-        <v>5751.93</v>
+        <f>SUM(Fayston_metric2!E6,Waitsfield_metric2!E6,Warren_metric2!E6)</f>
+        <v>8702.9600000000009</v>
       </c>
       <c r="F6">
-        <v>3256.06</v>
+        <f>SUM(Fayston_metric2!F6,Waitsfield_metric2!F6,Warren_metric2!F6)</f>
+        <v>12719.63000000005</v>
       </c>
       <c r="G6">
+        <f>SUM(Fayston_metric2!G6,Waitsfield_metric2!G6,Warren_metric2!G6)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f>SUM(Fayston_metric2!H6,Waitsfield_metric2!H6,Warren_metric2!H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
+        <f>Fayston_metric2!A7</f>
         <v>2009</v>
       </c>
       <c r="B7">
+        <f>Fayston_metric2!B7</f>
         <v>23040</v>
       </c>
       <c r="C7">
-        <v>10230.48</v>
+        <f>SUM(Fayston_metric2!C7,Waitsfield_metric2!C7,Warren_metric2!C7)</f>
+        <v>27518.710000000021</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D7,Waitsfield_metric2!D7,Warren_metric2!D7)</f>
+        <v>2138.06</v>
       </c>
       <c r="E7">
-        <v>5874.32</v>
+        <f>SUM(Fayston_metric2!E7,Waitsfield_metric2!E7,Warren_metric2!E7)</f>
+        <v>8745.35</v>
       </c>
       <c r="F7">
-        <v>3243.42</v>
+        <f>SUM(Fayston_metric2!F7,Waitsfield_metric2!F7,Warren_metric2!F7)</f>
+        <v>12615.39000000005</v>
       </c>
       <c r="G7">
+        <f>SUM(Fayston_metric2!G7,Waitsfield_metric2!G7,Warren_metric2!G7)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f>SUM(Fayston_metric2!H7,Waitsfield_metric2!H7,Warren_metric2!H7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
+        <f>Fayston_metric2!A8</f>
         <v>2010</v>
       </c>
       <c r="B8">
+        <f>Fayston_metric2!B8</f>
         <v>23040</v>
       </c>
       <c r="C8">
-        <v>10255.32</v>
+        <f>SUM(Fayston_metric2!C8,Waitsfield_metric2!C8,Warren_metric2!C8)</f>
+        <v>27781.210000000021</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D8,Waitsfield_metric2!D8,Warren_metric2!D8)</f>
+        <v>2139.66</v>
       </c>
       <c r="E8">
-        <v>5731.59</v>
+        <f>SUM(Fayston_metric2!E8,Waitsfield_metric2!E8,Warren_metric2!E8)</f>
+        <v>8481.33</v>
       </c>
       <c r="F8">
-        <v>3361.17</v>
+        <f>SUM(Fayston_metric2!F8,Waitsfield_metric2!F8,Warren_metric2!F8)</f>
+        <v>12586.510000000049</v>
       </c>
       <c r="G8">
+        <f>SUM(Fayston_metric2!G8,Waitsfield_metric2!G8,Warren_metric2!G8)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f>SUM(Fayston_metric2!H8,Waitsfield_metric2!H8,Warren_metric2!H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
+        <f>Fayston_metric2!A9</f>
         <v>2011</v>
       </c>
       <c r="B9">
+        <f>Fayston_metric2!B9</f>
         <v>23040</v>
       </c>
       <c r="C9">
-        <v>10193.95</v>
+        <f>SUM(Fayston_metric2!C9,Waitsfield_metric2!C9,Warren_metric2!C9)</f>
+        <v>27808.990000000023</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D9,Waitsfield_metric2!D9,Warren_metric2!D9)</f>
+        <v>2179.3500000000004</v>
       </c>
       <c r="E9">
-        <v>5795.59</v>
+        <f>SUM(Fayston_metric2!E9,Waitsfield_metric2!E9,Warren_metric2!E9)</f>
+        <v>8545.33</v>
       </c>
       <c r="F9">
-        <v>3353.07</v>
+        <f>SUM(Fayston_metric2!F9,Waitsfield_metric2!F9,Warren_metric2!F9)</f>
+        <v>12431.080000000049</v>
       </c>
       <c r="G9">
+        <f>SUM(Fayston_metric2!G9,Waitsfield_metric2!G9,Warren_metric2!G9)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f>SUM(Fayston_metric2!H9,Waitsfield_metric2!H9,Warren_metric2!H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
+        <f>Fayston_metric2!A10</f>
         <v>2012</v>
       </c>
       <c r="B10">
+        <f>Fayston_metric2!B10</f>
         <v>23040</v>
       </c>
       <c r="C10">
-        <v>10277.47</v>
+        <f>SUM(Fayston_metric2!C10,Waitsfield_metric2!C10,Warren_metric2!C10)</f>
+        <v>27585.210000000032</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D10,Waitsfield_metric2!D10,Warren_metric2!D10)</f>
+        <v>2201.59</v>
       </c>
       <c r="E10">
-        <v>5753.51</v>
+        <f>SUM(Fayston_metric2!E10,Waitsfield_metric2!E10,Warren_metric2!E10)</f>
+        <v>8565.65</v>
       </c>
       <c r="F10">
-        <v>3342.71</v>
+        <f>SUM(Fayston_metric2!F10,Waitsfield_metric2!F10,Warren_metric2!F10)</f>
+        <v>12531.960000000041</v>
       </c>
       <c r="G10">
+        <f>SUM(Fayston_metric2!G10,Waitsfield_metric2!G10,Warren_metric2!G10)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f>SUM(Fayston_metric2!H10,Waitsfield_metric2!H10,Warren_metric2!H10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
+        <f>Fayston_metric2!A11</f>
         <v>2013</v>
       </c>
       <c r="B11">
+        <f>Fayston_metric2!B11</f>
         <v>23040</v>
       </c>
       <c r="C11">
-        <v>10229.02</v>
+        <f>SUM(Fayston_metric2!C11,Waitsfield_metric2!C11,Warren_metric2!C11)</f>
+        <v>27675.190000000031</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D11,Waitsfield_metric2!D11,Warren_metric2!D11)</f>
+        <v>2201.59</v>
       </c>
       <c r="E11">
-        <v>5660.32</v>
+        <f>SUM(Fayston_metric2!E11,Waitsfield_metric2!E11,Warren_metric2!E11)</f>
+        <v>8472.4599999999991</v>
       </c>
       <c r="F11">
-        <v>3488.52</v>
+        <f>SUM(Fayston_metric2!F11,Waitsfield_metric2!F11,Warren_metric2!F11)</f>
+        <v>12534.370000000039</v>
       </c>
       <c r="G11">
+        <f>SUM(Fayston_metric2!G11,Waitsfield_metric2!G11,Warren_metric2!G11)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f>SUM(Fayston_metric2!H11,Waitsfield_metric2!H11,Warren_metric2!H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f>Fayston_metric2!A12</f>
         <v>2014</v>
       </c>
       <c r="B12">
+        <f>Fayston_metric2!B12</f>
         <v>23040</v>
       </c>
       <c r="C12">
-        <v>10333.2</v>
+        <f>SUM(Fayston_metric2!C12,Waitsfield_metric2!C12,Warren_metric2!C12)</f>
+        <v>27679.200000000019</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D12,Waitsfield_metric2!D12,Warren_metric2!D12)</f>
+        <v>2201.59</v>
       </c>
       <c r="E12">
-        <v>5537.86</v>
+        <f>SUM(Fayston_metric2!E12,Waitsfield_metric2!E12,Warren_metric2!E12)</f>
+        <v>8234.5</v>
       </c>
       <c r="F12">
-        <v>3481.96</v>
+        <f>SUM(Fayston_metric2!F12,Waitsfield_metric2!F12,Warren_metric2!F12)</f>
+        <v>12741.890000000039</v>
       </c>
       <c r="G12">
+        <f>SUM(Fayston_metric2!G12,Waitsfield_metric2!G12,Warren_metric2!G12)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f>SUM(Fayston_metric2!H12,Waitsfield_metric2!H12,Warren_metric2!H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
+        <f>Fayston_metric2!A13</f>
         <v>2015</v>
       </c>
       <c r="B13">
+        <f>Fayston_metric2!B13</f>
         <v>23040</v>
       </c>
       <c r="C13">
-        <v>10337.91</v>
+        <f>SUM(Fayston_metric2!C13,Waitsfield_metric2!C13,Warren_metric2!C13)</f>
+        <v>27779.520000000033</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D13,Waitsfield_metric2!D13,Warren_metric2!D13)</f>
+        <v>2201.59</v>
       </c>
       <c r="E13">
-        <v>5537.86</v>
+        <f>SUM(Fayston_metric2!E13,Waitsfield_metric2!E13,Warren_metric2!E13)</f>
+        <v>8172.5</v>
       </c>
       <c r="F13">
-        <v>3484.16</v>
+        <f>SUM(Fayston_metric2!F13,Waitsfield_metric2!F13,Warren_metric2!F13)</f>
+        <v>12702.870000000039</v>
       </c>
       <c r="G13">
+        <f>SUM(Fayston_metric2!G13,Waitsfield_metric2!G13,Warren_metric2!G13)</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f>SUM(Fayston_metric2!H13,Waitsfield_metric2!H13,Warren_metric2!H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f>Fayston_metric2!A14</f>
         <v>2016</v>
       </c>
       <c r="B14">
+        <f>Fayston_metric2!B14</f>
         <v>23040</v>
       </c>
       <c r="C14">
-        <v>11213.54</v>
+        <f>SUM(Fayston_metric2!C14,Waitsfield_metric2!C14,Warren_metric2!C14)</f>
+        <v>28813.570000000032</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D14,Waitsfield_metric2!D14,Warren_metric2!D14)</f>
+        <v>2201.59</v>
       </c>
       <c r="E14">
-        <v>4828.16</v>
+        <f>SUM(Fayston_metric2!E14,Waitsfield_metric2!E14,Warren_metric2!E14)</f>
+        <v>7462.8</v>
       </c>
       <c r="F14">
-        <v>3317.4</v>
+        <f>SUM(Fayston_metric2!F14,Waitsfield_metric2!F14,Warren_metric2!F14)</f>
+        <v>12411.960000000039</v>
       </c>
       <c r="G14">
+        <f>SUM(Fayston_metric2!G14,Waitsfield_metric2!G14,Warren_metric2!G14)</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f>SUM(Fayston_metric2!H14,Waitsfield_metric2!H14,Warren_metric2!H14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
+        <f>Fayston_metric2!A15</f>
         <v>2017</v>
       </c>
       <c r="B15">
+        <f>Fayston_metric2!B15</f>
         <v>23040</v>
       </c>
       <c r="C15">
-        <v>11244.07</v>
+        <f>SUM(Fayston_metric2!C15,Waitsfield_metric2!C15,Warren_metric2!C15)</f>
+        <v>28794.11000000003</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D15,Waitsfield_metric2!D15,Warren_metric2!D15)</f>
+        <v>2201.59</v>
       </c>
       <c r="E15">
-        <v>4766.81</v>
+        <f>SUM(Fayston_metric2!E15,Waitsfield_metric2!E15,Warren_metric2!E15)</f>
+        <v>7401.4500000000007</v>
       </c>
       <c r="F15">
-        <v>3343.81</v>
+        <f>SUM(Fayston_metric2!F15,Waitsfield_metric2!F15,Warren_metric2!F15)</f>
+        <v>12461.04000000003</v>
       </c>
       <c r="G15">
+        <f>SUM(Fayston_metric2!G15,Waitsfield_metric2!G15,Warren_metric2!G15)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f>SUM(Fayston_metric2!H15,Waitsfield_metric2!H15,Warren_metric2!H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
+        <f>Fayston_metric2!A16</f>
         <v>2018</v>
       </c>
       <c r="B16">
+        <f>Fayston_metric2!B16</f>
         <v>23040</v>
       </c>
       <c r="C16">
-        <v>11244.5</v>
+        <f>SUM(Fayston_metric2!C16,Waitsfield_metric2!C16,Warren_metric2!C16)</f>
+        <v>28958.36000000003</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D16,Waitsfield_metric2!D16,Warren_metric2!D16)</f>
+        <v>2066.1800000000003</v>
       </c>
       <c r="E16">
-        <v>4777.61</v>
+        <f>SUM(Fayston_metric2!E16,Waitsfield_metric2!E16,Warren_metric2!E16)</f>
+        <v>7412.25</v>
       </c>
       <c r="F16">
-        <v>3326.01</v>
+        <f>SUM(Fayston_metric2!F16,Waitsfield_metric2!F16,Warren_metric2!F16)</f>
+        <v>12183.260000000031</v>
       </c>
       <c r="G16">
+        <f>SUM(Fayston_metric2!G16,Waitsfield_metric2!G16,Warren_metric2!G16)</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f>SUM(Fayston_metric2!H16,Waitsfield_metric2!H16,Warren_metric2!H16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
+        <f>Fayston_metric2!A17</f>
         <v>2019</v>
       </c>
       <c r="B17">
+        <f>Fayston_metric2!B17</f>
         <v>23040</v>
       </c>
       <c r="C17">
-        <v>11369.19</v>
+        <f>SUM(Fayston_metric2!C17,Waitsfield_metric2!C17,Warren_metric2!C17)</f>
+        <v>29168.36000000003</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D17,Waitsfield_metric2!D17,Warren_metric2!D17)</f>
+        <v>2066.1800000000003</v>
       </c>
       <c r="E17">
-        <v>4657.01</v>
+        <f>SUM(Fayston_metric2!E17,Waitsfield_metric2!E17,Warren_metric2!E17)</f>
+        <v>7189.25</v>
       </c>
       <c r="F17">
-        <v>3326.97</v>
+        <f>SUM(Fayston_metric2!F17,Waitsfield_metric2!F17,Warren_metric2!F17)</f>
+        <v>12210.830000000029</v>
       </c>
       <c r="G17">
+        <f>SUM(Fayston_metric2!G17,Waitsfield_metric2!G17,Warren_metric2!G17)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f>SUM(Fayston_metric2!H17,Waitsfield_metric2!H17,Warren_metric2!H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
+        <f>Fayston_metric2!A18</f>
         <v>2020</v>
       </c>
       <c r="B18">
+        <f>Fayston_metric2!B18</f>
         <v>23040</v>
       </c>
       <c r="C18">
-        <v>11303.33</v>
+        <f>SUM(Fayston_metric2!C18,Waitsfield_metric2!C18,Warren_metric2!C18)</f>
+        <v>29062.760000000031</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!D18,Waitsfield_metric2!D18,Warren_metric2!D18)</f>
+        <v>2066.1800000000003</v>
       </c>
       <c r="E18">
-        <v>4528.51</v>
+        <f>SUM(Fayston_metric2!E18,Waitsfield_metric2!E18,Warren_metric2!E18)</f>
+        <v>7060.75</v>
       </c>
       <c r="F18">
-        <v>3488.77</v>
+        <f>SUM(Fayston_metric2!F18,Waitsfield_metric2!F18,Warren_metric2!F18)</f>
+        <v>12410.750000000029</v>
       </c>
       <c r="G18">
+        <f>SUM(Fayston_metric2!G18,Waitsfield_metric2!G18,Warren_metric2!G18)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <f>SUM(Fayston_metric2!H18,Waitsfield_metric2!H18,Warren_metric2!H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <f>(C18-C2)/C2</f>
+        <v>0.13087485447108482</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:F20" si="0">(D18-D2)/D2</f>
+        <v>-2.7455742735971813E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25200353830426231</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.13942963095480526</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,24 +2033,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2004</v>
       </c>
       <c r="B2">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C2">
-        <v>7973.47</v>
+        <v>9681.6700000000092</v>
       </c>
       <c r="D2">
-        <v>1587.11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1854.05</v>
+        <v>6039.57</v>
       </c>
       <c r="F2">
-        <v>3403.52</v>
+        <v>3598.49</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -936,24 +2059,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005</v>
       </c>
       <c r="B3">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C3">
-        <v>8319.41</v>
+        <v>10033.469999999999</v>
       </c>
       <c r="D3">
-        <v>1631.76</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1691.85</v>
+        <v>6059.78</v>
       </c>
       <c r="F3">
-        <v>3085.21</v>
+        <v>3377.43</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -962,24 +2085,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2006</v>
       </c>
       <c r="B4">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C4">
-        <v>8584.120000000001</v>
+        <v>10119.69</v>
       </c>
       <c r="D4">
-        <v>1593.86</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1355.3</v>
+        <v>5954.78</v>
       </c>
       <c r="F4">
-        <v>3187.61</v>
+        <v>3392.24</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -988,24 +2111,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2007</v>
       </c>
       <c r="B5">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C5">
-        <v>8625.309999999999</v>
+        <v>10301.93</v>
       </c>
       <c r="D5">
-        <v>1593.86</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1119.3</v>
+        <v>5883.63</v>
       </c>
       <c r="F5">
-        <v>3158.41</v>
+        <v>3249.44</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1014,24 +2137,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2008</v>
       </c>
       <c r="B6">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C6">
-        <v>8707.139999999999</v>
+        <v>10333.620000000001</v>
       </c>
       <c r="D6">
-        <v>1593.86</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1159.3</v>
+        <v>5751.93</v>
       </c>
       <c r="F6">
-        <v>3044.86</v>
+        <v>3256.06</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1040,24 +2163,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2009</v>
       </c>
       <c r="B7">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C7">
-        <v>8799.580000000011</v>
+        <v>10230.48</v>
       </c>
       <c r="D7">
-        <v>1593.86</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1119.3</v>
+        <v>5874.32</v>
       </c>
       <c r="F7">
-        <v>2994.16</v>
+        <v>3243.42</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1066,24 +2189,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010</v>
       </c>
       <c r="B8">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C8">
-        <v>8927.14000000001</v>
+        <v>10255.32</v>
       </c>
       <c r="D8">
-        <v>1595.46</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>993.8</v>
+        <v>5731.59</v>
       </c>
       <c r="F8">
-        <v>2970.14</v>
+        <v>3361.17</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1092,24 +2215,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2011</v>
       </c>
       <c r="B9">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C9">
-        <v>8887.97000000001</v>
+        <v>10193.950000000001</v>
       </c>
       <c r="D9">
-        <v>1635.15</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>993.8</v>
+        <v>5795.59</v>
       </c>
       <c r="F9">
-        <v>2981.56</v>
+        <v>3353.07</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1118,24 +2241,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2012</v>
       </c>
       <c r="B10">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C10">
-        <v>8814.910000000011</v>
+        <v>10277.469999999999</v>
       </c>
       <c r="D10">
-        <v>1689.59</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>993.8</v>
+        <v>5753.51</v>
       </c>
       <c r="F10">
-        <v>2997.57</v>
+        <v>3342.71</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1144,24 +2267,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C11">
-        <v>8908.910000000011</v>
+        <v>10229.02</v>
       </c>
       <c r="D11">
-        <v>1689.59</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>993.8</v>
+        <v>5660.32</v>
       </c>
       <c r="F11">
-        <v>2901.85</v>
+        <v>3488.52</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1170,24 +2293,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C12">
-        <v>8978.010000000009</v>
+        <v>10333.200000000001</v>
       </c>
       <c r="D12">
-        <v>1689.59</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>878.3</v>
+        <v>5537.86</v>
       </c>
       <c r="F12">
-        <v>2949.93</v>
+        <v>3481.96</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1196,24 +2319,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2015</v>
       </c>
       <c r="B13">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C13">
-        <v>9025.410000000011</v>
+        <v>10337.91</v>
       </c>
       <c r="D13">
-        <v>1689.59</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>816.3</v>
+        <v>5537.86</v>
       </c>
       <c r="F13">
-        <v>2989.54</v>
+        <v>3484.16</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1222,24 +2345,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
       <c r="B14">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C14">
-        <v>9123.910000000011</v>
+        <v>11213.54</v>
       </c>
       <c r="D14">
-        <v>1689.59</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>816.3</v>
+        <v>4828.16</v>
       </c>
       <c r="F14">
-        <v>2907.92</v>
+        <v>3317.4</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1248,24 +2371,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2017</v>
       </c>
       <c r="B15">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C15">
-        <v>9107.73000000001</v>
+        <v>11244.07</v>
       </c>
       <c r="D15">
-        <v>1689.59</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>816.3</v>
+        <v>4766.8100000000004</v>
       </c>
       <c r="F15">
-        <v>2915.17</v>
+        <v>3343.81</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1274,24 +2397,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
       <c r="B16">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C16">
-        <v>9174.030000000021</v>
+        <v>11244.5</v>
       </c>
       <c r="D16">
-        <v>1561.18</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>816.3</v>
+        <v>4777.6099999999997</v>
       </c>
       <c r="F16">
-        <v>2874.2</v>
+        <v>3326.01</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1300,24 +2423,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2019</v>
       </c>
       <c r="B17">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C17">
-        <v>9227.830000000011</v>
+        <v>11369.19</v>
       </c>
       <c r="D17">
-        <v>1561.18</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>816.3</v>
+        <v>4657.01</v>
       </c>
       <c r="F17">
-        <v>2822.17</v>
+        <v>3326.97</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1326,24 +2449,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2020</v>
       </c>
       <c r="B18">
-        <v>23080</v>
+        <v>23040</v>
       </c>
       <c r="C18">
-        <v>9236.090000000009</v>
+        <v>11303.33</v>
       </c>
       <c r="D18">
-        <v>1561.18</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>816.3</v>
+        <v>4528.51</v>
       </c>
       <c r="F18">
-        <v>2812.52</v>
+        <v>3488.77</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1358,14 +2481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,11 +2514,492 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2004</v>
       </c>
       <c r="B2">
+        <v>23080</v>
+      </c>
+      <c r="C2">
+        <v>7973.47</v>
+      </c>
+      <c r="D2">
+        <v>1587.11</v>
+      </c>
+      <c r="E2">
+        <v>1854.05</v>
+      </c>
+      <c r="F2">
+        <v>3403.52</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>23080</v>
+      </c>
+      <c r="C3">
+        <v>8319.41</v>
+      </c>
+      <c r="D3">
+        <v>1631.76</v>
+      </c>
+      <c r="E3">
+        <v>1691.85</v>
+      </c>
+      <c r="F3">
+        <v>3085.21</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4">
+        <v>23080</v>
+      </c>
+      <c r="C4">
+        <v>8584.1200000000008</v>
+      </c>
+      <c r="D4">
+        <v>1593.86</v>
+      </c>
+      <c r="E4">
+        <v>1355.3</v>
+      </c>
+      <c r="F4">
+        <v>3187.61</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5">
+        <v>23080</v>
+      </c>
+      <c r="C5">
+        <v>8625.31</v>
+      </c>
+      <c r="D5">
+        <v>1593.86</v>
+      </c>
+      <c r="E5">
+        <v>1119.3</v>
+      </c>
+      <c r="F5">
+        <v>3158.41</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2008</v>
+      </c>
+      <c r="B6">
+        <v>23080</v>
+      </c>
+      <c r="C6">
+        <v>8707.14</v>
+      </c>
+      <c r="D6">
+        <v>1593.86</v>
+      </c>
+      <c r="E6">
+        <v>1159.3</v>
+      </c>
+      <c r="F6">
+        <v>3044.86</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2009</v>
+      </c>
+      <c r="B7">
+        <v>23080</v>
+      </c>
+      <c r="C7">
+        <v>8799.5800000000108</v>
+      </c>
+      <c r="D7">
+        <v>1593.86</v>
+      </c>
+      <c r="E7">
+        <v>1119.3</v>
+      </c>
+      <c r="F7">
+        <v>2994.16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>23080</v>
+      </c>
+      <c r="C8">
+        <v>8927.1400000000103</v>
+      </c>
+      <c r="D8">
+        <v>1595.46</v>
+      </c>
+      <c r="E8">
+        <v>993.8</v>
+      </c>
+      <c r="F8">
+        <v>2970.14</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9">
+        <v>23080</v>
+      </c>
+      <c r="C9">
+        <v>8887.9700000000103</v>
+      </c>
+      <c r="D9">
+        <v>1635.15</v>
+      </c>
+      <c r="E9">
+        <v>993.8</v>
+      </c>
+      <c r="F9">
+        <v>2981.56</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>23080</v>
+      </c>
+      <c r="C10">
+        <v>8814.9100000000108</v>
+      </c>
+      <c r="D10">
+        <v>1689.59</v>
+      </c>
+      <c r="E10">
+        <v>993.8</v>
+      </c>
+      <c r="F10">
+        <v>2997.57</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2013</v>
+      </c>
+      <c r="B11">
+        <v>23080</v>
+      </c>
+      <c r="C11">
+        <v>8908.9100000000108</v>
+      </c>
+      <c r="D11">
+        <v>1689.59</v>
+      </c>
+      <c r="E11">
+        <v>993.8</v>
+      </c>
+      <c r="F11">
+        <v>2901.85</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12">
+        <v>23080</v>
+      </c>
+      <c r="C12">
+        <v>8978.0100000000093</v>
+      </c>
+      <c r="D12">
+        <v>1689.59</v>
+      </c>
+      <c r="E12">
+        <v>878.3</v>
+      </c>
+      <c r="F12">
+        <v>2949.93</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>23080</v>
+      </c>
+      <c r="C13">
+        <v>9025.4100000000108</v>
+      </c>
+      <c r="D13">
+        <v>1689.59</v>
+      </c>
+      <c r="E13">
+        <v>816.3</v>
+      </c>
+      <c r="F13">
+        <v>2989.54</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>23080</v>
+      </c>
+      <c r="C14">
+        <v>9123.9100000000108</v>
+      </c>
+      <c r="D14">
+        <v>1689.59</v>
+      </c>
+      <c r="E14">
+        <v>816.3</v>
+      </c>
+      <c r="F14">
+        <v>2907.92</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>23080</v>
+      </c>
+      <c r="C15">
+        <v>9107.7300000000105</v>
+      </c>
+      <c r="D15">
+        <v>1689.59</v>
+      </c>
+      <c r="E15">
+        <v>816.3</v>
+      </c>
+      <c r="F15">
+        <v>2915.17</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16">
+        <v>23080</v>
+      </c>
+      <c r="C16">
+        <v>9174.0300000000207</v>
+      </c>
+      <c r="D16">
+        <v>1561.18</v>
+      </c>
+      <c r="E16">
+        <v>816.3</v>
+      </c>
+      <c r="F16">
+        <v>2874.2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17">
+        <v>23080</v>
+      </c>
+      <c r="C17">
+        <v>9227.8300000000108</v>
+      </c>
+      <c r="D17">
+        <v>1561.18</v>
+      </c>
+      <c r="E17">
+        <v>816.3</v>
+      </c>
+      <c r="F17">
+        <v>2822.17</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18">
+        <v>23080</v>
+      </c>
+      <c r="C18">
+        <v>9236.0900000000092</v>
+      </c>
+      <c r="D18">
+        <v>1561.18</v>
+      </c>
+      <c r="E18">
+        <v>816.3</v>
+      </c>
+      <c r="F18">
+        <v>2812.52</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2">
         <v>23085</v>
       </c>
       <c r="C2">
@@ -1408,7 +3012,7 @@
         <v>1545.93</v>
       </c>
       <c r="F2">
-        <v>7419.52999999999</v>
+        <v>7419.5299999999897</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1417,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -1425,7 +3029,7 @@
         <v>23085</v>
       </c>
       <c r="C3">
-        <v>8317.209999999999</v>
+        <v>8317.2099999999991</v>
       </c>
       <c r="D3">
         <v>537.4</v>
@@ -1434,7 +3038,7 @@
         <v>1545.93</v>
       </c>
       <c r="F3">
-        <v>7065.98999999999</v>
+        <v>7065.9899999999898</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1443,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -1451,7 +3055,7 @@
         <v>23085</v>
       </c>
       <c r="C4">
-        <v>8262.889999999999</v>
+        <v>8262.89</v>
       </c>
       <c r="D4">
         <v>537.4</v>
@@ -1460,7 +3064,7 @@
         <v>1791.73</v>
       </c>
       <c r="F4">
-        <v>6910.20000000005</v>
+        <v>6910.2000000000498</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1469,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -1477,16 +3081,16 @@
         <v>23085</v>
       </c>
       <c r="C5">
-        <v>8482.30000000001</v>
+        <v>8482.3000000000102</v>
       </c>
       <c r="D5">
-        <v>537.2</v>
+        <v>537.20000000000005</v>
       </c>
       <c r="E5">
         <v>1791.73</v>
       </c>
       <c r="F5">
-        <v>6659.06000000005</v>
+        <v>6659.0600000000504</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1495,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -1503,16 +3107,16 @@
         <v>23085</v>
       </c>
       <c r="C6">
-        <v>8513.100000000009</v>
+        <v>8513.1000000000095</v>
       </c>
       <c r="D6">
-        <v>537.2</v>
+        <v>537.20000000000005</v>
       </c>
       <c r="E6">
         <v>1791.73</v>
       </c>
       <c r="F6">
-        <v>6418.71000000005</v>
+        <v>6418.7100000000501</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1521,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -1529,16 +3133,16 @@
         <v>23085</v>
       </c>
       <c r="C7">
-        <v>8488.650000000011</v>
+        <v>8488.6500000000106</v>
       </c>
       <c r="D7">
-        <v>544.2</v>
+        <v>544.20000000000005</v>
       </c>
       <c r="E7">
         <v>1751.73</v>
       </c>
       <c r="F7">
-        <v>6377.81000000005</v>
+        <v>6377.8100000000504</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1547,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -1555,16 +3159,16 @@
         <v>23085</v>
       </c>
       <c r="C8">
-        <v>8598.750000000009</v>
+        <v>8598.7500000000091</v>
       </c>
       <c r="D8">
-        <v>544.2</v>
+        <v>544.20000000000005</v>
       </c>
       <c r="E8">
         <v>1755.94</v>
       </c>
       <c r="F8">
-        <v>6255.20000000005</v>
+        <v>6255.2000000000498</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1573,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -1581,16 +3185,16 @@
         <v>23085</v>
       </c>
       <c r="C9">
-        <v>8727.070000000011</v>
+        <v>8727.0700000000106</v>
       </c>
       <c r="D9">
-        <v>544.2</v>
+        <v>544.20000000000005</v>
       </c>
       <c r="E9">
         <v>1755.94</v>
       </c>
       <c r="F9">
-        <v>6096.45000000005</v>
+        <v>6096.4500000000498</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1599,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1607,7 +3211,7 @@
         <v>23085</v>
       </c>
       <c r="C10">
-        <v>8492.83000000002</v>
+        <v>8492.8300000000199</v>
       </c>
       <c r="D10">
         <v>512</v>
@@ -1616,7 +3220,7 @@
         <v>1818.34</v>
       </c>
       <c r="F10">
-        <v>6191.68000000004</v>
+        <v>6191.6800000000403</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1625,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -1633,7 +3237,7 @@
         <v>23085</v>
       </c>
       <c r="C11">
-        <v>8537.26000000002</v>
+        <v>8537.2600000000202</v>
       </c>
       <c r="D11">
         <v>512</v>
@@ -1651,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -1659,7 +3263,7 @@
         <v>23085</v>
       </c>
       <c r="C12">
-        <v>8367.990000000011</v>
+        <v>8367.9900000000107</v>
       </c>
       <c r="D12">
         <v>512</v>
@@ -1677,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1685,7 +3289,7 @@
         <v>23085</v>
       </c>
       <c r="C13">
-        <v>8416.200000000021</v>
+        <v>8416.2000000000207</v>
       </c>
       <c r="D13">
         <v>512</v>
@@ -1694,7 +3298,7 @@
         <v>1818.34</v>
       </c>
       <c r="F13">
-        <v>6229.17000000004</v>
+        <v>6229.1700000000401</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1703,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -1711,7 +3315,7 @@
         <v>23085</v>
       </c>
       <c r="C14">
-        <v>8476.120000000021</v>
+        <v>8476.1200000000208</v>
       </c>
       <c r="D14">
         <v>512</v>
@@ -1720,7 +3324,7 @@
         <v>1818.34</v>
       </c>
       <c r="F14">
-        <v>6186.64000000004</v>
+        <v>6186.6400000000403</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1729,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -1737,7 +3341,7 @@
         <v>23085</v>
       </c>
       <c r="C15">
-        <v>8442.310000000019</v>
+        <v>8442.3100000000195</v>
       </c>
       <c r="D15">
         <v>512</v>
@@ -1746,7 +3350,7 @@
         <v>1818.34</v>
       </c>
       <c r="F15">
-        <v>6202.06000000003</v>
+        <v>6202.0600000000304</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1755,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1763,7 +3367,7 @@
         <v>23085</v>
       </c>
       <c r="C16">
-        <v>8539.830000000011</v>
+        <v>8539.8300000000108</v>
       </c>
       <c r="D16">
         <v>505</v>
@@ -1772,7 +3376,7 @@
         <v>1818.34</v>
       </c>
       <c r="F16">
-        <v>5983.05000000003</v>
+        <v>5983.0500000000302</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1781,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -1789,7 +3393,7 @@
         <v>23085</v>
       </c>
       <c r="C17">
-        <v>8571.34000000002</v>
+        <v>8571.3400000000202</v>
       </c>
       <c r="D17">
         <v>505</v>
@@ -1798,7 +3402,7 @@
         <v>1715.94</v>
       </c>
       <c r="F17">
-        <v>6061.69000000003</v>
+        <v>6061.6900000000296</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1807,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -1815,7 +3419,7 @@
         <v>23085</v>
       </c>
       <c r="C18">
-        <v>8523.34000000002</v>
+        <v>8523.3400000000202</v>
       </c>
       <c r="D18">
         <v>505</v>
